--- a/data/trans_orig/P36B09-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6609</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1671</v>
+        <v>1692</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16498</v>
+        <v>16324</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01394927968055426</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003527438535005786</v>
+        <v>0.003570797849975255</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03482142027619051</v>
+        <v>0.03445588896313859</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -764,19 +764,19 @@
         <v>5229</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2047</v>
+        <v>1999</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11520</v>
+        <v>11273</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0171054334702424</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006695736743910572</v>
+        <v>0.006539536484993664</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03768602522541415</v>
+        <v>0.03687727169645861</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -785,19 +785,19 @@
         <v>11838</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5350</v>
+        <v>5867</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21599</v>
+        <v>21804</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01518703436893062</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006864121035689596</v>
+        <v>0.007526425306853701</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02771072977986469</v>
+        <v>0.02797329279847951</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>23635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14871</v>
+        <v>15581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34347</v>
+        <v>34827</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04988669221161261</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03138743441338961</v>
+        <v>0.03288628240173835</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07249587762696946</v>
+        <v>0.07351016130053686</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -835,19 +835,19 @@
         <v>20685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13030</v>
+        <v>12682</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31134</v>
+        <v>30620</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06766928456839476</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04262510351484627</v>
+        <v>0.04148613278010384</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1018501658596778</v>
+        <v>0.1001701651017337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -856,19 +856,19 @@
         <v>44320</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31859</v>
+        <v>32525</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59618</v>
+        <v>61314</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05686052445420039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04087347504606394</v>
+        <v>0.04172711298944142</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07648698360640796</v>
+        <v>0.07866252997481302</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>198736</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>179398</v>
+        <v>176326</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>220643</v>
+        <v>219732</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4194734454595558</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3786561435484041</v>
+        <v>0.3721709408729806</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4657122612129785</v>
+        <v>0.4637897600881123</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>123</v>
@@ -906,19 +906,19 @@
         <v>126106</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>109826</v>
+        <v>109212</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>143145</v>
+        <v>143397</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4125422681453609</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3592838249458024</v>
+        <v>0.3572742107304399</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4682828634482707</v>
+        <v>0.4691053575189464</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>312</v>
@@ -927,19 +927,19 @@
         <v>324843</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>297636</v>
+        <v>298192</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>354240</v>
+        <v>352216</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.416755232790502</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3818498183061807</v>
+        <v>0.3825628287550846</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4544698220548461</v>
+        <v>0.4518730282701016</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>198323</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>176803</v>
+        <v>178128</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>219763</v>
+        <v>222338</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4186003295953663</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3731786668996908</v>
+        <v>0.3759744457692354</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.463853290079333</v>
+        <v>0.4692898032524316</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -977,19 +977,19 @@
         <v>143990</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126482</v>
+        <v>125991</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>161074</v>
+        <v>160648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4710468382574584</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4137704940492112</v>
+        <v>0.412163880441224</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5269363002390712</v>
+        <v>0.5255398957340217</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>337</v>
@@ -998,19 +998,19 @@
         <v>342313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>316461</v>
+        <v>314474</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>374611</v>
+        <v>372410</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4391683742190379</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4060013771118586</v>
+        <v>0.4034519541298858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.480604429335634</v>
+        <v>0.4777806005208055</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>46473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34867</v>
+        <v>34628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59553</v>
+        <v>61961</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09809025305291098</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0735940986231694</v>
+        <v>0.07308881781048747</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.125697771447061</v>
+        <v>0.1307815544665153</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1048,19 +1048,19 @@
         <v>9671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4639</v>
+        <v>4825</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18446</v>
+        <v>17614</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03163617555854351</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0151766828426574</v>
+        <v>0.01578358330547468</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06034290852698616</v>
+        <v>0.05762198213911286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -1069,19 +1069,19 @@
         <v>56143</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41334</v>
+        <v>41612</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70723</v>
+        <v>71916</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07202883416732908</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05302888708473769</v>
+        <v>0.05338595400344814</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09073347709723452</v>
+        <v>0.09226452579957235</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>5185</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1752</v>
+        <v>1911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11720</v>
+        <v>11942</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01412944112861102</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00477339432512693</v>
+        <v>0.005207568484112454</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03194062100129306</v>
+        <v>0.03254453486352756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1194,19 +1194,19 @@
         <v>7118</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2994</v>
+        <v>3109</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14864</v>
+        <v>13978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01914068072184482</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008051722623799487</v>
+        <v>0.008361426869109331</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03997049336775709</v>
+        <v>0.03758821168395124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1215,19 +1215,19 @@
         <v>12302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7013</v>
+        <v>6145</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20536</v>
+        <v>20955</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01665178336766183</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00949232108687029</v>
+        <v>0.008317823810587523</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02779665876112587</v>
+        <v>0.0283633430168294</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>19898</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12425</v>
+        <v>12932</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29490</v>
+        <v>29232</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05422726388441776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03386295171180197</v>
+        <v>0.03524406308159438</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08036752828742287</v>
+        <v>0.0796659314501177</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1265,19 +1265,19 @@
         <v>13375</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7494</v>
+        <v>7535</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21357</v>
+        <v>22056</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03596808365658512</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02015381919020391</v>
+        <v>0.02026148133628865</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05743306625140568</v>
+        <v>0.05931127824410557</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -1286,19 +1286,19 @@
         <v>33273</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23426</v>
+        <v>23679</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44606</v>
+        <v>47624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04503674311959768</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03170832969072522</v>
+        <v>0.03205038461292371</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06037600295794578</v>
+        <v>0.06446111745080563</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>158346</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>137865</v>
+        <v>140576</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>178124</v>
+        <v>178845</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4315392333253324</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3757206371136873</v>
+        <v>0.3831091188422889</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4854396873917154</v>
+        <v>0.4874024261338056</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>172</v>
@@ -1336,19 +1336,19 @@
         <v>176615</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>158302</v>
+        <v>157587</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>194953</v>
+        <v>195321</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.474944780753703</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4256969724600629</v>
+        <v>0.4237755354915704</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5242561687774486</v>
+        <v>0.5252461213314311</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>320</v>
@@ -1357,19 +1357,19 @@
         <v>334962</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>306409</v>
+        <v>305486</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>362286</v>
+        <v>362094</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4533868507961729</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4147399480908633</v>
+        <v>0.4134901145480882</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4903719372052445</v>
+        <v>0.4901110416880409</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>160619</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>143351</v>
+        <v>140999</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>182721</v>
+        <v>179798</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4377328921796076</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3906733751248516</v>
+        <v>0.3842623721066381</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4979664949066744</v>
+        <v>0.4899996376041352</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>154</v>
@@ -1407,19 +1407,19 @@
         <v>157772</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>139099</v>
+        <v>139464</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>176883</v>
+        <v>179091</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4242714545364158</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3740573149520402</v>
+        <v>0.3750390333605951</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4756639739268634</v>
+        <v>0.4816016377815419</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>308</v>
@@ -1428,19 +1428,19 @@
         <v>318391</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>294311</v>
+        <v>288944</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>350382</v>
+        <v>346132</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4309572527127546</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3983643967192285</v>
+        <v>0.3910995589286953</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4742594918517729</v>
+        <v>0.4685069400138876</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>22886</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14543</v>
+        <v>15121</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34398</v>
+        <v>34438</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06237116948203127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03963282586711347</v>
+        <v>0.04120985193961365</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09374555516999569</v>
+        <v>0.09385318192579072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1478,19 +1478,19 @@
         <v>16985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9925</v>
+        <v>10310</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27152</v>
+        <v>26715</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04567500033145125</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02668906036127527</v>
+        <v>0.02772449989479496</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07301587091208919</v>
+        <v>0.07183952165788407</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -1499,19 +1499,19 @@
         <v>39871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28844</v>
+        <v>28082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54167</v>
+        <v>54514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05396737000381296</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03904239179087358</v>
+        <v>0.03801008877953632</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07331739675761702</v>
+        <v>0.07378750559031268</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>2731</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8163</v>
+        <v>7374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005051989572302135</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001570030053171314</v>
+        <v>0.001564201305512848</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01510149835522441</v>
+        <v>0.01364074265435824</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>4122</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1044</v>
+        <v>987</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10300</v>
+        <v>9556</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02456971418369699</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006221412235161519</v>
+        <v>0.005883976485135503</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06138882403718111</v>
+        <v>0.05695235773260446</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1645,19 +1645,19 @@
         <v>6853</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2944</v>
+        <v>2803</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13579</v>
+        <v>13358</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009675137510987622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004156911322498893</v>
+        <v>0.003957202318576203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01916988446222795</v>
+        <v>0.01885898225964668</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>20352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13139</v>
+        <v>13072</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30142</v>
+        <v>31346</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03764983713936087</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02430681742179524</v>
+        <v>0.02418217576748848</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05576227295855295</v>
+        <v>0.05798867599017204</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1695,19 +1695,19 @@
         <v>4908</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1770</v>
+        <v>1923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10649</v>
+        <v>10411</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02925510696754268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01054921926999837</v>
+        <v>0.01145925403907987</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0634683639907207</v>
+        <v>0.06205027173583741</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -1716,19 +1716,19 @@
         <v>25260</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15750</v>
+        <v>17408</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36400</v>
+        <v>37126</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03566138406594246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02223468842593232</v>
+        <v>0.02457542459589343</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05138772144559564</v>
+        <v>0.05241382751999369</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>225594</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>200317</v>
+        <v>203711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>248030</v>
+        <v>249992</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4173407683064861</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3705807376175809</v>
+        <v>0.3768584292354643</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4588480039418801</v>
+        <v>0.4624771472231778</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -1766,19 +1766,19 @@
         <v>73893</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60560</v>
+        <v>61657</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>87457</v>
+        <v>86889</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.440408939841725</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3609439238960057</v>
+        <v>0.3674817742554735</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5212533620426546</v>
+        <v>0.5178690068593363</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>296</v>
@@ -1787,19 +1787,19 @@
         <v>299486</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>274961</v>
+        <v>272653</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>326772</v>
+        <v>324678</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4228049077902515</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3881809932688178</v>
+        <v>0.384922767620327</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4613267072939848</v>
+        <v>0.4583701484938496</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>238790</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>215648</v>
+        <v>215302</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>262315</v>
+        <v>260380</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4417545349962213</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.398942410121586</v>
+        <v>0.3983010343491212</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4852736174835474</v>
+        <v>0.4816941780894564</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -1837,19 +1837,19 @@
         <v>77991</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>64562</v>
+        <v>65837</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92079</v>
+        <v>89470</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.464836427934984</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3847969991200708</v>
+        <v>0.392393937346597</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5487998687167085</v>
+        <v>0.5332527358508722</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>308</v>
@@ -1858,19 +1858,19 @@
         <v>316782</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>291764</v>
+        <v>289738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>344147</v>
+        <v>343782</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4472219246579496</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4119033202455809</v>
+        <v>0.409042945463338</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4858548435034555</v>
+        <v>0.485340824837324</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>53084</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40315</v>
+        <v>39924</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>68559</v>
+        <v>68977</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09820286998562962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07458100924500752</v>
+        <v>0.07385734120618648</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1268322079323796</v>
+        <v>0.1276043326603401</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1908,19 +1908,19 @@
         <v>6867</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2921</v>
+        <v>2938</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13504</v>
+        <v>13191</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04092981107205124</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0174124750631968</v>
+        <v>0.01750841264773956</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08048469422342425</v>
+        <v>0.07861721047411226</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>57</v>
@@ -1929,19 +1929,19 @@
         <v>59951</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>45210</v>
+        <v>45701</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>76947</v>
+        <v>76186</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08463664597486879</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0638256399965243</v>
+        <v>0.06451903242510253</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1086315106902283</v>
+        <v>0.1075566440008856</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>7967</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3156</v>
+        <v>3750</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15429</v>
+        <v>14866</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006442503807341665</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00255247490757216</v>
+        <v>0.00303210566771556</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01247661692587456</v>
+        <v>0.01202134379353558</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2054,19 +2054,19 @@
         <v>11373</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6487</v>
+        <v>6029</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20053</v>
+        <v>19795</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01592249996527584</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009081218724013755</v>
+        <v>0.008440650014719846</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02807490706595935</v>
+        <v>0.02771364367647495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -2075,19 +2075,19 @@
         <v>19340</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12080</v>
+        <v>11935</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29446</v>
+        <v>29786</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009913409295438998</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006191976864361828</v>
+        <v>0.006117566219625886</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0150936513851027</v>
+        <v>0.01526752439412652</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>44227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34121</v>
+        <v>33028</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>57852</v>
+        <v>58603</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03576455617717571</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02759236770135065</v>
+        <v>0.02670833137988095</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04678235729133765</v>
+        <v>0.04738976958266607</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -2125,19 +2125,19 @@
         <v>35803</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>25239</v>
+        <v>25610</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>49748</v>
+        <v>49373</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05012422196353754</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03533504080968774</v>
+        <v>0.0358542494419296</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06964762329017478</v>
+        <v>0.06912202572015762</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>80</v>
@@ -2146,19 +2146,19 @@
         <v>80030</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>61607</v>
+        <v>63105</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>97361</v>
+        <v>95501</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04102205227261588</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03157851033990264</v>
+        <v>0.03234632297962187</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04990526609405519</v>
+        <v>0.04895228650374774</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>492028</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>456270</v>
+        <v>455587</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>529097</v>
+        <v>525482</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3978798736329012</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3689641830705994</v>
+        <v>0.3684116636547002</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4278563287382201</v>
+        <v>0.4249331056387615</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>296</v>
@@ -2196,19 +2196,19 @@
         <v>305171</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>280110</v>
+        <v>280720</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>331511</v>
+        <v>334496</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4272400262302091</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.392153706160042</v>
+        <v>0.393009006129977</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4641161447658828</v>
+        <v>0.4682947466291907</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>787</v>
@@ -2217,19 +2217,19 @@
         <v>797199</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>752742</v>
+        <v>757693</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>840338</v>
+        <v>842984</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4086294892533761</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3858415843636206</v>
+        <v>0.3883795564975509</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4307419263623726</v>
+        <v>0.4320981983779607</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>599862</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>564785</v>
+        <v>563425</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>636067</v>
+        <v>633142</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.485080158795123</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4567153124361001</v>
+        <v>0.4556157398261824</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5143575554833609</v>
+        <v>0.5119923211234183</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>330</v>
@@ -2267,19 +2267,19 @@
         <v>337200</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>311255</v>
+        <v>308433</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>363270</v>
+        <v>363678</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4720799848410099</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4357579517589221</v>
+        <v>0.4318059957336284</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5085780185964349</v>
+        <v>0.5091501539686725</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>916</v>
@@ -2288,19 +2288,19 @@
         <v>937061</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>893610</v>
+        <v>893270</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>982064</v>
+        <v>979046</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4803204126547423</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4580481406229631</v>
+        <v>0.457873924272291</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5033876535627848</v>
+        <v>0.5018410731864659</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>92540</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>74580</v>
+        <v>76427</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>110374</v>
+        <v>113825</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07483290758745845</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06030963078140841</v>
+        <v>0.06180276399336675</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08925448517031469</v>
+        <v>0.09204490440548645</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -2338,19 +2338,19 @@
         <v>24738</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16763</v>
+        <v>16199</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37181</v>
+        <v>35712</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03463326699996764</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02346859174464932</v>
+        <v>0.02267915323530712</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05205336796109194</v>
+        <v>0.04999715411050897</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>114</v>
@@ -2359,19 +2359,19 @@
         <v>117278</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>97987</v>
+        <v>97155</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>140279</v>
+        <v>141735</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06011463652382676</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0502261825876501</v>
+        <v>0.049799763182057</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07190433090865675</v>
+        <v>0.07265063157380722</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>3426</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10354</v>
+        <v>10223</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00977440952477873</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002382125846703459</v>
+        <v>0.002380490459254207</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02953716006909292</v>
+        <v>0.02916239635412258</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6691</v>
+        <v>7634</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003809662468176155</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0117868779664784</v>
+        <v>0.01344772016644478</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -2505,19 +2505,19 @@
         <v>5589</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1673</v>
+        <v>2031</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>13016</v>
+        <v>12947</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006086798256299127</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001821938106841939</v>
+        <v>0.002211596283176152</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01417517803711398</v>
+        <v>0.01409920451301768</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>20515</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12575</v>
+        <v>13310</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31544</v>
+        <v>30594</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05852224674849762</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03587236114606718</v>
+        <v>0.03796855963770918</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0899823428082787</v>
+        <v>0.08727297517605243</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -2555,19 +2555,19 @@
         <v>27286</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18275</v>
+        <v>17552</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39306</v>
+        <v>38455</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04806417895510246</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03219088378598657</v>
+        <v>0.03091886452499187</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0692388255612659</v>
+        <v>0.06773908070417543</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>45</v>
@@ -2576,19 +2576,19 @@
         <v>47801</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35410</v>
+        <v>35282</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63995</v>
+        <v>63601</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0520567104440271</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03856281925439491</v>
+        <v>0.03842351569016506</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06969294181285081</v>
+        <v>0.06926387939424739</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>119276</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>102757</v>
+        <v>103289</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>138310</v>
+        <v>137702</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3402494468917264</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2931255850463252</v>
+        <v>0.2946442641352343</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3945447212046942</v>
+        <v>0.3928118141294285</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>239</v>
@@ -2626,19 +2626,19 @@
         <v>251027</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>226385</v>
+        <v>228595</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>277571</v>
+        <v>276615</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4421889450734783</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3987818034248183</v>
+        <v>0.4026749320056053</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4889459551189901</v>
+        <v>0.4872629539607066</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>354</v>
@@ -2647,19 +2647,19 @@
         <v>370303</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>340597</v>
+        <v>340589</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>400089</v>
+        <v>399424</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4032719420002279</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3709204989952944</v>
+        <v>0.370912245245252</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4357097360563516</v>
+        <v>0.4349851684271351</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>176755</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>157372</v>
+        <v>158189</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>195321</v>
+        <v>196478</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5042133998548002</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4489233996887298</v>
+        <v>0.4512520231974977</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5571767772712446</v>
+        <v>0.5604764459924749</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>251</v>
@@ -2697,19 +2697,19 @@
         <v>262243</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>238782</v>
+        <v>237967</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>287586</v>
+        <v>285500</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4619452145492044</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4206191487640883</v>
+        <v>0.4191832121476589</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5065872595688173</v>
+        <v>0.5029143605807472</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>423</v>
@@ -2718,19 +2718,19 @@
         <v>438997</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>408302</v>
+        <v>409033</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>470603</v>
+        <v>469100</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4780817575651975</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4446534111104196</v>
+        <v>0.4454494419523646</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5125009963259348</v>
+        <v>0.510864315150952</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>30583</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21261</v>
+        <v>20683</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43875</v>
+        <v>42698</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08724049698019716</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06064870678135845</v>
+        <v>0.05900142441337985</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.125158866293556</v>
+        <v>0.1218001201634931</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -2768,19 +2768,19 @@
         <v>24974</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15838</v>
+        <v>15297</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37308</v>
+        <v>37274</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04399199895403864</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02789836594548456</v>
+        <v>0.02694584413149776</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06571902209082547</v>
+        <v>0.06565912813217377</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>51</v>
@@ -2789,19 +2789,19 @@
         <v>55557</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>41232</v>
+        <v>41409</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>73383</v>
+        <v>71845</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06050279173424841</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04490264585756767</v>
+        <v>0.04509602723794586</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07991665423628286</v>
+        <v>0.07824136400064056</v>
       </c>
     </row>
     <row r="33">
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6775</v>
+        <v>8600</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007494465744519843</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02271900346369097</v>
+        <v>0.02883963266390917</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -2914,19 +2914,19 @@
         <v>14790</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8898</v>
+        <v>8097</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24867</v>
+        <v>24258</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01184374105982122</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.007125624817939789</v>
+        <v>0.00648414438541409</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01991372682538982</v>
+        <v>0.01942577770828464</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -2935,19 +2935,19 @@
         <v>17025</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>9928</v>
+        <v>9784</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>27155</v>
+        <v>27787</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01100535094617657</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006417833877413995</v>
+        <v>0.006324548016215142</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01755351956000373</v>
+        <v>0.01796256829055148</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>7681</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3501</v>
+        <v>3480</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14164</v>
+        <v>15908</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02575831853607372</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01173904401171997</v>
+        <v>0.01167089644470649</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04749952311134806</v>
+        <v>0.05334644746841233</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>68</v>
@@ -2985,19 +2985,19 @@
         <v>70312</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>55626</v>
+        <v>54002</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>87070</v>
+        <v>88344</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05630508704831648</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04454492670820896</v>
+        <v>0.04324459782474754</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06972479500003084</v>
+        <v>0.07074539218724729</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>76</v>
@@ -3006,19 +3006,19 @@
         <v>77993</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>63155</v>
+        <v>60855</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>97175</v>
+        <v>95135</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05041672476544239</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04082515027815593</v>
+        <v>0.03933825129975117</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06281693464288973</v>
+        <v>0.06149787591538673</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>119093</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>102485</v>
+        <v>103416</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>135928</v>
+        <v>135164</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3993721087906948</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3436763464272783</v>
+        <v>0.3468006085093407</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4558275558217996</v>
+        <v>0.4532633079271725</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>597</v>
@@ -3056,19 +3056,19 @@
         <v>605315</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>571766</v>
+        <v>568327</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>639681</v>
+        <v>640642</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4847325499845213</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4578666910339527</v>
+        <v>0.4551132886642297</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5122528095747898</v>
+        <v>0.5130228441412357</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>718</v>
@@ -3077,19 +3077,19 @@
         <v>724407</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>686013</v>
+        <v>687643</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>761212</v>
+        <v>764661</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4682780041567434</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4434586313902315</v>
+        <v>0.4445122022403335</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4920699176591083</v>
+        <v>0.4942993806141346</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>144907</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>128573</v>
+        <v>128659</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>161417</v>
+        <v>161396</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4859369030086418</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4311615178174536</v>
+        <v>0.4314521444616854</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5413010304285566</v>
+        <v>0.5412338674484453</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>519</v>
@@ -3127,19 +3127,19 @@
         <v>518673</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>486250</v>
+        <v>483008</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>551510</v>
+        <v>555445</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4153502896179542</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3893858711578365</v>
+        <v>0.3867900755077979</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4416459179119178</v>
+        <v>0.4447968392203305</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>669</v>
@@ -3148,19 +3148,19 @@
         <v>663579</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>622663</v>
+        <v>625096</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>702702</v>
+        <v>702821</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.428956951540277</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.402507615048172</v>
+        <v>0.4040805434311842</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.454246960140083</v>
+        <v>0.4543238038802908</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>24285</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>16184</v>
+        <v>15815</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>33866</v>
+        <v>34560</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0814382039200698</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05427289947383355</v>
+        <v>0.05303567508901434</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1135665489040726</v>
+        <v>0.1158951044486449</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>40</v>
@@ -3198,19 +3198,19 @@
         <v>39671</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>28477</v>
+        <v>29048</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>53023</v>
+        <v>53149</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0317683322893868</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02280454423982286</v>
+        <v>0.02326114813591275</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04246038803252275</v>
+        <v>0.04256149021931713</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>65</v>
@@ -3219,19 +3219,19 @@
         <v>63956</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>50585</v>
+        <v>49565</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>80489</v>
+        <v>79664</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04134296859136066</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0326997784217078</v>
+        <v>0.03204035681136692</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.05203062408117463</v>
+        <v>0.05149711055799091</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>28153</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>18872</v>
+        <v>18921</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>40953</v>
+        <v>41897</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.008618195912297899</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.00577725968351277</v>
+        <v>0.005792141964869117</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01253684390303159</v>
+        <v>0.01282579307447725</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>44</v>
@@ -3344,19 +3344,19 @@
         <v>44795</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>31547</v>
+        <v>33564</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>60450</v>
+        <v>58851</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01326835314545446</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.009344291681049029</v>
+        <v>0.009941806214664707</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01790555497134585</v>
+        <v>0.0174317772312055</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>69</v>
@@ -3365,19 +3365,19 @@
         <v>72947</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>55504</v>
+        <v>56711</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>92255</v>
+        <v>92893</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01098157545800825</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.008355560468254112</v>
+        <v>0.008537397551021918</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01388813788170382</v>
+        <v>0.0139841602792319</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>136308</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>115095</v>
+        <v>114565</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>160809</v>
+        <v>159550</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04172737452988964</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03523340625513401</v>
+        <v>0.03507132753288935</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04922749773990891</v>
+        <v>0.04884211720490577</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>165</v>
@@ -3415,19 +3415,19 @@
         <v>172369</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>149846</v>
+        <v>148529</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>199235</v>
+        <v>200564</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05105622819063266</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04438468155974514</v>
+        <v>0.04399484979197959</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05901389484230832</v>
+        <v>0.05940771483549075</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>302</v>
@@ -3436,19 +3436,19 @@
         <v>308677</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>271647</v>
+        <v>272226</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>342422</v>
+        <v>340252</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04646863828104222</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.04089399165494276</v>
+        <v>0.04098114856345531</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05154854910931304</v>
+        <v>0.05122195226235978</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>1313074</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1255163</v>
+        <v>1256569</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1364328</v>
+        <v>1374285</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4019645643038068</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.384236633511114</v>
+        <v>0.3846672194369354</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4176548758730994</v>
+        <v>0.4207028192130807</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1497</v>
@@ -3486,19 +3486,19 @@
         <v>1538127</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1480036</v>
+        <v>1476234</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1590714</v>
+        <v>1595043</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4555976324529801</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4383908963952538</v>
+        <v>0.4372646147179462</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4711739483863406</v>
+        <v>0.4724561425750808</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2787</v>
@@ -3507,19 +3507,19 @@
         <v>2851201</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2764366</v>
+        <v>2773077</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2926393</v>
+        <v>2936119</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4292228460955825</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4161505956449124</v>
+        <v>0.4174620625475003</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4405424354350103</v>
+        <v>0.4420065377765832</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>1519255</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1462548</v>
+        <v>1461510</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1578304</v>
+        <v>1579702</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4650819904765319</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4477224308557002</v>
+        <v>0.4474047161613046</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4831582875663149</v>
+        <v>0.4835860457167632</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1472</v>
@@ -3557,19 +3557,19 @@
         <v>1497868</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1442159</v>
+        <v>1437074</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1554532</v>
+        <v>1559580</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4436727571281937</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.4271715362162317</v>
+        <v>0.4256654907643521</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4604568109947201</v>
+        <v>0.4619520137245708</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2961</v>
@@ -3578,19 +3578,19 @@
         <v>3017123</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2936762</v>
+        <v>2929572</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>3104047</v>
+        <v>3092736</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4542010370704777</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4421032574996244</v>
+        <v>0.4410209320900287</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4672865873555061</v>
+        <v>0.4655838815189513</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>269850</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>239765</v>
+        <v>240392</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>303349</v>
+        <v>305538</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.08260787477747375</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0733981998168682</v>
+        <v>0.07358998145448611</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.09286283373136101</v>
+        <v>0.09353283012769403</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>116</v>
@@ -3628,19 +3628,19 @@
         <v>122906</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>103070</v>
+        <v>102479</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>147817</v>
+        <v>147179</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03640502908273911</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03052948761323206</v>
+        <v>0.03035461022982942</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04378369406608375</v>
+        <v>0.04359492528938021</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>378</v>
@@ -3649,19 +3649,19 @@
         <v>392756</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>354585</v>
+        <v>357022</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>433671</v>
+        <v>436755</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.05912590309488935</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05337956728227471</v>
+        <v>0.05374645364477588</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.06528531803410148</v>
+        <v>0.06574950682206125</v>
       </c>
     </row>
     <row r="45">
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4511</v>
+        <v>4531</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002045919042416621</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01031845742513106</v>
+        <v>0.01036281834872016</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4016,19 +4016,19 @@
         <v>6017</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1814</v>
+        <v>1866</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16013</v>
+        <v>14197</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01919981331174341</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005787379387461131</v>
+        <v>0.005954505568613685</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0510978468397346</v>
+        <v>0.04530311371980072</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4037,19 +4037,19 @@
         <v>6911</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2670</v>
+        <v>2794</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16260</v>
+        <v>16649</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009207815422164771</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003557819560475337</v>
+        <v>0.003722151555572661</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02166238869777682</v>
+        <v>0.02218084325726292</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>28334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19295</v>
+        <v>19023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40447</v>
+        <v>40370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0648062988935038</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04413193051193499</v>
+        <v>0.0435100520226761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09251150768487844</v>
+        <v>0.0923361316206871</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -4087,19 +4087,19 @@
         <v>28746</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18931</v>
+        <v>19462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41467</v>
+        <v>40910</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09173157594543045</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06041031999468314</v>
+        <v>0.06210323802678997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1323223540608147</v>
+        <v>0.1305470530299559</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -4108,19 +4108,19 @@
         <v>57081</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42902</v>
+        <v>41339</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73045</v>
+        <v>73871</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07604783047894229</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05715750857324958</v>
+        <v>0.05507589742781332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09731729832518356</v>
+        <v>0.09841743297102742</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>155106</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>136330</v>
+        <v>135664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>177850</v>
+        <v>177115</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3547616375361711</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3118163791623954</v>
+        <v>0.3102939696792602</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4067828926403154</v>
+        <v>0.4051029754920608</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>115</v>
@@ -4158,19 +4158,19 @@
         <v>126216</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>108386</v>
+        <v>106034</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>143767</v>
+        <v>144320</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4027611698778505</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3458653321659481</v>
+        <v>0.3383614721910788</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4587668111273624</v>
+        <v>0.4605315888824434</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>260</v>
@@ -4179,19 +4179,19 @@
         <v>281321</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>254757</v>
+        <v>253500</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>309406</v>
+        <v>311190</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.374801849485138</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3394099315849394</v>
+        <v>0.3377357049637489</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4122183770633382</v>
+        <v>0.4145952582314513</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>207559</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>185995</v>
+        <v>184161</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>229082</v>
+        <v>231416</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.474734331758184</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4254128106881825</v>
+        <v>0.4212184583524047</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5239629962772555</v>
+        <v>0.5293003804249868</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -4229,19 +4229,19 @@
         <v>132650</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114649</v>
+        <v>115111</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151413</v>
+        <v>151721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4232947183401914</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3658518819634539</v>
+        <v>0.367326008518522</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4831680324275127</v>
+        <v>0.4841513631632885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>308</v>
@@ -4250,19 +4250,19 @@
         <v>340209</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>310599</v>
+        <v>310704</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>367922</v>
+        <v>367668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4532578567764815</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4138084725448812</v>
+        <v>0.4139479255678297</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4901785839925584</v>
+        <v>0.489840150102626</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>45318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35004</v>
+        <v>33431</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59367</v>
+        <v>59340</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1036518127697246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08006277350063828</v>
+        <v>0.07646516111602282</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.13578552931038</v>
+        <v>0.1357242837867374</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -4300,19 +4300,19 @@
         <v>19747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12201</v>
+        <v>11696</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31523</v>
+        <v>30821</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06301272252478424</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03893412869548488</v>
+        <v>0.03732271584440152</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1005908437520064</v>
+        <v>0.09835215933754575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>61</v>
@@ -4321,19 +4321,19 @@
         <v>65064</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>50142</v>
+        <v>49814</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>83626</v>
+        <v>81693</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08668464783727341</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0668033239980919</v>
+        <v>0.06636652818933626</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1114144057388178</v>
+        <v>0.1088391045443086</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>4162</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12735</v>
+        <v>11967</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01006012005426355</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002332173695831732</v>
+        <v>0.00231695388053797</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03078244530621282</v>
+        <v>0.02892573567599509</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5392</v>
+        <v>5354</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003027361743241462</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01595212116419496</v>
+        <v>0.01584035040563091</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -4467,19 +4467,19 @@
         <v>5185</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1040</v>
+        <v>1790</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14278</v>
+        <v>16004</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006897816863644723</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001383481162805181</v>
+        <v>0.00238169385923912</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01899398480399159</v>
+        <v>0.02129027920014741</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>27586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17433</v>
+        <v>16763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41808</v>
+        <v>41415</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06668027375862519</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04213770580104295</v>
+        <v>0.04051908660797227</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1010586166256976</v>
+        <v>0.1001087058519246</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -4517,19 +4517,19 @@
         <v>18582</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11450</v>
+        <v>11063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28790</v>
+        <v>28891</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05497503626174833</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0338732106230293</v>
+        <v>0.03272923340081173</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08517415679515852</v>
+        <v>0.08547365268496718</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -4538,19 +4538,19 @@
         <v>46168</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>33891</v>
+        <v>33961</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66034</v>
+        <v>64579</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06141697474473582</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04508550856527748</v>
+        <v>0.04517790102534607</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08784466078308326</v>
+        <v>0.08590931429089869</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>141697</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>122489</v>
+        <v>123516</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>164574</v>
+        <v>164783</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3425086653777358</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.296078815946137</v>
+        <v>0.2985614117724602</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3978061211374416</v>
+        <v>0.3983109386260358</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>129</v>
@@ -4588,19 +4588,19 @@
         <v>143075</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>124467</v>
+        <v>124183</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161887</v>
+        <v>162644</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4232841791746079</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3682331385441122</v>
+        <v>0.3673928083922914</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4789404773715663</v>
+        <v>0.4811787670272091</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>259</v>
@@ -4609,19 +4609,19 @@
         <v>284772</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>258426</v>
+        <v>253526</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>315534</v>
+        <v>311959</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3788296441043033</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3437818281898713</v>
+        <v>0.3372631941191668</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4197523917062543</v>
+        <v>0.4149961149990081</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>207196</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185118</v>
+        <v>185736</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228364</v>
+        <v>228505</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5008316279578864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4474649681750302</v>
+        <v>0.4489581753369196</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5519992543230207</v>
+        <v>0.5523387915053383</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>134</v>
@@ -4659,19 +4659,19 @@
         <v>150818</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132109</v>
+        <v>132720</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170987</v>
+        <v>171899</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4461940377762706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3908431416270317</v>
+        <v>0.3926507931762604</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5058623804358081</v>
+        <v>0.5085600521062446</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>320</v>
@@ -4680,19 +4680,19 @@
         <v>358015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>327642</v>
+        <v>327413</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>384313</v>
+        <v>385580</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.47626365361299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4358589522482592</v>
+        <v>0.4355551999651149</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5112488644516648</v>
+        <v>0.5129341390665612</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>33063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22297</v>
+        <v>22976</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46847</v>
+        <v>47149</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07991931285148905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05389565052412743</v>
+        <v>0.05553826771213745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1132376099549158</v>
+        <v>0.1139681788256084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -4730,19 +4730,19 @@
         <v>24512</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16657</v>
+        <v>15785</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35878</v>
+        <v>35056</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07251938504413173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0492784623795743</v>
+        <v>0.04669869669219528</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1061430597048742</v>
+        <v>0.1037119659072431</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -4751,19 +4751,19 @@
         <v>57575</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45108</v>
+        <v>45148</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74234</v>
+        <v>73816</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07659191067432621</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06000673421958948</v>
+        <v>0.06006007774273619</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09875298627268012</v>
+        <v>0.09819629681180136</v>
       </c>
     </row>
     <row r="15">
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5944</v>
+        <v>6893</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003096838031841198</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00947246310720817</v>
+        <v>0.01098435745646074</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5211</v>
+        <v>4927</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003826096391422803</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02010996696912591</v>
+        <v>0.0190138881787815</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -4897,19 +4897,19 @@
         <v>2935</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8439</v>
+        <v>7896</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003309968075723956</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001078633087378364</v>
+        <v>0.001079997431118406</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009517894721171764</v>
+        <v>0.008905090854701604</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>60185</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45651</v>
+        <v>45321</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77563</v>
+        <v>77494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09590870155575015</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07274800897934197</v>
+        <v>0.07222182753103137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1236033740078717</v>
+        <v>0.1234927735966552</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -4947,19 +4947,19 @@
         <v>21904</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13294</v>
+        <v>14338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34104</v>
+        <v>33831</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08453059924504022</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05130363067488367</v>
+        <v>0.05533074725797663</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1316118682125388</v>
+        <v>0.1305564237069905</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -4968,19 +4968,19 @@
         <v>82089</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>65255</v>
+        <v>65188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>100705</v>
+        <v>103012</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09258338424821128</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07359801738343512</v>
+        <v>0.07352158858470016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1135793932383621</v>
+        <v>0.116182041320903</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>233496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>209443</v>
+        <v>209441</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>257659</v>
+        <v>262304</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3720945863140206</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3337634806620778</v>
+        <v>0.3337600045057805</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4106000447515827</v>
+        <v>0.4180010476297271</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>118</v>
@@ -5018,19 +5018,19 @@
         <v>124708</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>108712</v>
+        <v>109181</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>142503</v>
+        <v>140542</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4812596986674366</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4195284251987101</v>
+        <v>0.4213384270716904</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5499322508182005</v>
+        <v>0.5423660759981391</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>334</v>
@@ -5039,19 +5039,19 @@
         <v>358204</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>328474</v>
+        <v>328670</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>387982</v>
+        <v>390036</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4039987323284706</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3704680233289329</v>
+        <v>0.3706884446600072</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.437583110534313</v>
+        <v>0.439900072199268</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>286230</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>262318</v>
+        <v>260242</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>310949</v>
+        <v>311628</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4561299911075589</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.418024231959828</v>
+        <v>0.4147153536396218</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4955213666366454</v>
+        <v>0.4966034998587833</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -5089,19 +5089,19 @@
         <v>94649</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>77315</v>
+        <v>79085</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109866</v>
+        <v>110752</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3652582574945737</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2983669010386442</v>
+        <v>0.3051971612871321</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4239842955541063</v>
+        <v>0.427402466567278</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>365</v>
@@ -5110,19 +5110,19 @@
         <v>380879</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>349966</v>
+        <v>350085</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>410868</v>
+        <v>410205</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4295721926014855</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3947077419963645</v>
+        <v>0.394841334078086</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4633957024907779</v>
+        <v>0.4626474392276927</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>45664</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33001</v>
+        <v>32294</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>61957</v>
+        <v>60707</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07276988299082914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05258888134845469</v>
+        <v>0.05146258533877791</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0987330708927273</v>
+        <v>0.09674057303617903</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -5160,19 +5160,19 @@
         <v>16876</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10581</v>
+        <v>10082</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26026</v>
+        <v>26983</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06512534820152668</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04083261732284948</v>
+        <v>0.03890792148436389</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1004367162789451</v>
+        <v>0.1041308519486232</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>57</v>
@@ -5181,19 +5181,19 @@
         <v>62540</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46688</v>
+        <v>47420</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>79490</v>
+        <v>81318</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07053572274610864</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05265665941023633</v>
+        <v>0.05348234629349426</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08965287409532292</v>
+        <v>0.09171461083919989</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>19487</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12242</v>
+        <v>11951</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30659</v>
+        <v>31884</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01690266943124091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01061807237677919</v>
+        <v>0.01036574704553873</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02659252214293945</v>
+        <v>0.02765555689529763</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -5306,19 +5306,19 @@
         <v>14431</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8135</v>
+        <v>8347</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23104</v>
+        <v>23443</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01889787281246821</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01065276138897817</v>
+        <v>0.01093089713226447</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03025465709922329</v>
+        <v>0.03069874335202399</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -5327,19 +5327,19 @@
         <v>33919</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23456</v>
+        <v>23485</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48630</v>
+        <v>47914</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01769765920297424</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01223848307588415</v>
+        <v>0.01225385231421501</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02537383339254237</v>
+        <v>0.02499986377238727</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>77500</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>61469</v>
+        <v>61633</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>96950</v>
+        <v>97839</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06722180747597868</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05331688661120104</v>
+        <v>0.05345932088834072</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.084092086170778</v>
+        <v>0.08486348581693211</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>57</v>
@@ -5377,19 +5377,19 @@
         <v>59057</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>45277</v>
+        <v>45451</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>73667</v>
+        <v>75533</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0773355901630557</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05929059263104486</v>
+        <v>0.05951820628085645</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09646653536684012</v>
+        <v>0.09891046557073024</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>129</v>
@@ -5398,19 +5398,19 @@
         <v>136558</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>116037</v>
+        <v>112754</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>164946</v>
+        <v>162663</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07125164917803815</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06054441464186373</v>
+        <v>0.05883184936685481</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08606361366579916</v>
+        <v>0.08487236164615665</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>500832</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>466006</v>
+        <v>466661</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>539241</v>
+        <v>533001</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4344091070526509</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4042019591362306</v>
+        <v>0.4047701347129139</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4677243971314724</v>
+        <v>0.4623121854783374</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>292</v>
@@ -5448,19 +5448,19 @@
         <v>313454</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>289092</v>
+        <v>285700</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>343996</v>
+        <v>339368</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4104665913243555</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3785655404906256</v>
+        <v>0.3741229368938176</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4504614935273278</v>
+        <v>0.4444011106642599</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>756</v>
@@ -5469,19 +5469,19 @@
         <v>814285</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>770786</v>
+        <v>769508</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>860545</v>
+        <v>855931</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4248691998468748</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4021727237410171</v>
+        <v>0.4015056693498066</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4490062351806955</v>
+        <v>0.4465984751197015</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>479970</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>444390</v>
+        <v>447514</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>512915</v>
+        <v>518912</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4163139109510642</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3854526532032601</v>
+        <v>0.3881626250999431</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4448899273040518</v>
+        <v>0.4500912643827302</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>289</v>
@@ -5519,19 +5519,19 @@
         <v>314486</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>283956</v>
+        <v>286984</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>340205</v>
+        <v>344065</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4118187514163621</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3718388993094156</v>
+        <v>0.375804788401121</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4454978601766763</v>
+        <v>0.450551439633906</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>740</v>
@@ -5540,19 +5540,19 @@
         <v>794456</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>746693</v>
+        <v>748762</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>838821</v>
+        <v>836718</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4145228124164378</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3896018312597105</v>
+        <v>0.39068137825379</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4376711316279515</v>
+        <v>0.4365742153331904</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>75115</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60238</v>
+        <v>59160</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>94544</v>
+        <v>93294</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06515250508906535</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05224910990092101</v>
+        <v>0.05131369666926942</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08200492310601837</v>
+        <v>0.08092069000263405</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -5590,19 +5590,19 @@
         <v>62223</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48150</v>
+        <v>47243</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>78234</v>
+        <v>78716</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08148119428375851</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06305209820449584</v>
+        <v>0.06186425426143936</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1024470551997784</v>
+        <v>0.1030789847117259</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>130</v>
@@ -5611,19 +5611,19 @@
         <v>137338</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>116968</v>
+        <v>115520</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>162483</v>
+        <v>160530</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07165867935567495</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06103052738213611</v>
+        <v>0.06027470983839175</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08477861689106035</v>
+        <v>0.08375947418993103</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>2980</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7817</v>
+        <v>7621</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005849423422907401</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001448139894366924</v>
+        <v>0.001445902360679983</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01534163455886595</v>
+        <v>0.01495609792557773</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -5736,19 +5736,19 @@
         <v>10988</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5363</v>
+        <v>5548</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19715</v>
+        <v>18807</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01446695824817783</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007061376208204464</v>
+        <v>0.007305064937102345</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02595819661030658</v>
+        <v>0.02476299261156917</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -5757,19 +5757,19 @@
         <v>13968</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7507</v>
+        <v>7804</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>22798</v>
+        <v>23034</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01100691750854688</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00591520301756033</v>
+        <v>0.006149545591549716</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01796523624217472</v>
+        <v>0.01815083157872175</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>33354</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23069</v>
+        <v>23263</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46856</v>
+        <v>45758</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06546081398603995</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04527454731248515</v>
+        <v>0.04565609389212567</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09196038926267192</v>
+        <v>0.08980554559789612</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>92</v>
@@ -5807,19 +5807,19 @@
         <v>104143</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>85197</v>
+        <v>84143</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>126206</v>
+        <v>123396</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1371211554428885</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1121763253874488</v>
+        <v>0.1107878123626984</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1661704738260318</v>
+        <v>0.1624706872853802</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>125</v>
@@ -5828,19 +5828,19 @@
         <v>137497</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>117360</v>
+        <v>114301</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>161764</v>
+        <v>161561</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1083486925652836</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09248035191198473</v>
+        <v>0.09007015021705923</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1274715909732299</v>
+        <v>0.1273111074763958</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>202267</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>181294</v>
+        <v>181068</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>226686</v>
+        <v>224527</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.396969464054816</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3558075821748058</v>
+        <v>0.3553644136379093</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4448942135852516</v>
+        <v>0.4406562828641306</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>278</v>
@@ -5878,19 +5878,19 @@
         <v>299376</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>270914</v>
+        <v>270937</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>328979</v>
+        <v>327894</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3941767096565782</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3567024810012862</v>
+        <v>0.3567331883404053</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4331546083942852</v>
+        <v>0.4317251510178461</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>469</v>
@@ -5899,19 +5899,19 @@
         <v>501642</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>464494</v>
+        <v>465661</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>534448</v>
+        <v>535382</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3952980331196816</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3660248534212113</v>
+        <v>0.3669447707816657</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4211495439106025</v>
+        <v>0.4218853603297236</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>223512</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>201909</v>
+        <v>201165</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>245202</v>
+        <v>246465</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4386654967959893</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3962672002487014</v>
+        <v>0.3948072896546303</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4812343548815598</v>
+        <v>0.4837117442834526</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>276</v>
@@ -5949,19 +5949,19 @@
         <v>294936</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>268331</v>
+        <v>268417</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>322813</v>
+        <v>323694</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3883307888742355</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3533013707842988</v>
+        <v>0.3534145993002283</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4250353990943413</v>
+        <v>0.4261954024719207</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>490</v>
@@ -5970,19 +5970,19 @@
         <v>518448</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>481967</v>
+        <v>484806</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>553857</v>
+        <v>556507</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4085407611642201</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3797938709812709</v>
+        <v>0.3820310400716204</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4364433225476653</v>
+        <v>0.4385317575195309</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>47414</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35945</v>
+        <v>35295</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61116</v>
+        <v>62150</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0930548017402474</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07054574043983931</v>
+        <v>0.06926905831917576</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.119945355074463</v>
+        <v>0.121974771272346</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>45</v>
@@ -6020,19 +6020,19 @@
         <v>50054</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37688</v>
+        <v>36033</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>66351</v>
+        <v>64605</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06590438777811995</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04962239404892557</v>
+        <v>0.04744284202240811</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08736130221968104</v>
+        <v>0.08506353636285849</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>90</v>
@@ -6041,19 +6041,19 @@
         <v>97468</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>79744</v>
+        <v>79568</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>118449</v>
+        <v>118701</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0768055956422678</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06283919215733112</v>
+        <v>0.06270052990056897</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09333847563759549</v>
+        <v>0.09353706632950066</v>
       </c>
     </row>
     <row r="33">
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4539</v>
+        <v>4607</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003551923110776486</v>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0171361449162255</v>
+        <v>0.01739155089226111</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -6166,19 +6166,19 @@
         <v>12091</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6495</v>
+        <v>6509</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20898</v>
+        <v>20873</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01095999733455332</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00588756927001292</v>
+        <v>0.005900298321393054</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01894329104303378</v>
+        <v>0.01892041466637565</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -6187,19 +6187,19 @@
         <v>13032</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6655</v>
+        <v>7283</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20914</v>
+        <v>21697</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.00952562729045054</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004864158659114634</v>
+        <v>0.005323545000754816</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01528706809885781</v>
+        <v>0.01585935870225149</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>11242</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5693</v>
+        <v>5928</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19873</v>
+        <v>20914</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04244001122770461</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02149050311711024</v>
+        <v>0.02237913833862593</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07502257679572212</v>
+        <v>0.07895177864835359</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>88</v>
@@ -6237,19 +6237,19 @@
         <v>92065</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>75330</v>
+        <v>75062</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>110866</v>
+        <v>113812</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08345349330854755</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06828338810590862</v>
+        <v>0.0680409380573531</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1004961574456576</v>
+        <v>0.1031667230829162</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>98</v>
@@ -6258,19 +6258,19 @@
         <v>103307</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>84250</v>
+        <v>85642</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>125272</v>
+        <v>124934</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0755123593074475</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06158288557685025</v>
+        <v>0.06259994809237773</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09156754764212167</v>
+        <v>0.09132065008045939</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>95644</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>80279</v>
+        <v>79130</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>111554</v>
+        <v>110763</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3610697923224879</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3030637106143007</v>
+        <v>0.2987250685992227</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4211301109330428</v>
+        <v>0.4181454065372396</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>507</v>
@@ -6308,19 +6308,19 @@
         <v>539494</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>507475</v>
+        <v>508109</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>571558</v>
+        <v>573667</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4890311802307016</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4600072145315646</v>
+        <v>0.4605816566874332</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5180957681081003</v>
+        <v>0.5200073220570328</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>602</v>
@@ -6329,19 +6329,19 @@
         <v>635138</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>597013</v>
+        <v>597930</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>671304</v>
+        <v>674448</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4642549730717266</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4363872053105765</v>
+        <v>0.4370577327209786</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4906904824889389</v>
+        <v>0.4929886334828793</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>132332</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>116065</v>
+        <v>116292</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>148221</v>
+        <v>150170</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4995700273927605</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4381609074947571</v>
+        <v>0.4390167921762724</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5595549314055454</v>
+        <v>0.5669111087747655</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>394</v>
@@ -6379,19 +6379,19 @@
         <v>418500</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>387367</v>
+        <v>387410</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>450232</v>
+        <v>451520</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3793546695631503</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3511338804000017</v>
+        <v>0.3511729013490823</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4081184752698732</v>
+        <v>0.4092856763419017</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>528</v>
@@ -6400,19 +6400,19 @@
         <v>550832</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>516825</v>
+        <v>515716</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>594495</v>
+        <v>587305</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4026310708117299</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3777735500911107</v>
+        <v>0.3769632453490985</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4345469907469895</v>
+        <v>0.4292909381395008</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>24732</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>16611</v>
+        <v>17072</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>36090</v>
+        <v>35115</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09336824594627052</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06270898751688435</v>
+        <v>0.06444855046768919</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1362453307027623</v>
+        <v>0.132565783493896</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>39</v>
@@ -6450,19 +6450,19 @@
         <v>41039</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>29464</v>
+        <v>29512</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>57198</v>
+        <v>55843</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03720065956304723</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02670824066113149</v>
+        <v>0.02675125632633132</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.05184826035991027</v>
+        <v>0.0506196204826045</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>63</v>
@@ -6471,19 +6471,19 @@
         <v>65772</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>51157</v>
+        <v>51188</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>82868</v>
+        <v>82584</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04807596951864542</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0373931872730944</v>
+        <v>0.03741601499903165</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06057249283431269</v>
+        <v>0.06036495674886198</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>30408</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>20452</v>
+        <v>20875</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>41985</v>
+        <v>44373</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.008928469653868351</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.006004999399196886</v>
+        <v>0.006129452509487128</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01232766951025596</v>
+        <v>0.01302878225461253</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>40</v>
@@ -6596,19 +6596,19 @@
         <v>45541</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>32552</v>
+        <v>32489</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>62574</v>
+        <v>63111</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01287626364601749</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.009203799185019573</v>
+        <v>0.009185856863883238</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01769204818911467</v>
+        <v>0.01784392301260272</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>68</v>
@@ -6617,19 +6617,19 @@
         <v>75950</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>58170</v>
+        <v>57621</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>94228</v>
+        <v>97027</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01093963984779779</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.008378699634185107</v>
+        <v>0.008299676226791</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01357238444024406</v>
+        <v>0.01397555599478746</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>238201</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>213200</v>
+        <v>210824</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>274508</v>
+        <v>274357</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06994064682747467</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06259981395343174</v>
+        <v>0.06190235363190279</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08060107774982903</v>
+        <v>0.08055682217421764</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>299</v>
@@ -6667,19 +6667,19 @@
         <v>324498</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>292258</v>
+        <v>293171</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>360425</v>
+        <v>364236</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09174776937367285</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08263209805587413</v>
+        <v>0.08289029740977727</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1019055868556688</v>
+        <v>0.1029830839388956</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>515</v>
@@ -6688,19 +6688,19 @@
         <v>562699</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>517594</v>
+        <v>515489</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>612266</v>
+        <v>606519</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08105010060533116</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07455320059292556</v>
+        <v>0.07424998720883352</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.08818958931985026</v>
+        <v>0.08736180545610932</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>1329042</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1277449</v>
+        <v>1272131</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1390593</v>
+        <v>1389544</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3902340847150873</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3750854426409033</v>
+        <v>0.3735239208044279</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4083069188963384</v>
+        <v>0.4079989504164774</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1439</v>
@@ -6738,19 +6738,19 @@
         <v>1546322</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1488301</v>
+        <v>1486513</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1604692</v>
+        <v>1605907</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4372027319763814</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4207980003940495</v>
+        <v>0.4202924183877433</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4537063012948467</v>
+        <v>0.4540496257791474</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2680</v>
@@ -6759,19 +6759,19 @@
         <v>2875363</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2789959</v>
+        <v>2788416</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2962160</v>
+        <v>2966175</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4141618640290419</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4018604065756272</v>
+        <v>0.401638071290371</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4266639110523411</v>
+        <v>0.4272422541886853</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>1536798</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1474924</v>
+        <v>1475564</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1596952</v>
+        <v>1600780</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4512357538942169</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.433068098009593</v>
+        <v>0.4332561462277342</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4688979439003182</v>
+        <v>0.4700220793101195</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1302</v>
@@ -6809,19 +6809,19 @@
         <v>1406040</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1342648</v>
+        <v>1340081</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1460576</v>
+        <v>1466739</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3975397757661019</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.379616435406158</v>
+        <v>0.378890747092025</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4129591058971722</v>
+        <v>0.4147017466394012</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2751</v>
@@ -6830,19 +6830,19 @@
         <v>2942838</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2860710</v>
+        <v>2861702</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>3028043</v>
+        <v>3032771</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4238807928805693</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4120512652585529</v>
+        <v>0.4121941202449884</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4361535442503839</v>
+        <v>0.4368344803740004</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>271306</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>238356</v>
+        <v>240355</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>306919</v>
+        <v>305995</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.07966104490935283</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06998613777527798</v>
+        <v>0.07057309869675497</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.09011786389129897</v>
+        <v>0.08984632767364926</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>199</v>
@@ -6880,19 +6880,19 @@
         <v>214452</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>186715</v>
+        <v>184194</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>244292</v>
+        <v>245782</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0606334592378263</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.05279121190136972</v>
+        <v>0.05207847002941483</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.06907032944141991</v>
+        <v>0.06949169096003423</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>456</v>
@@ -6901,19 +6901,19 @@
         <v>485758</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>446198</v>
+        <v>439566</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>533685</v>
+        <v>528349</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.06996760263725989</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06426944564305177</v>
+        <v>0.06331421538368821</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.07687099245758874</v>
+        <v>0.07610237335058885</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>4103</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1266</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10606</v>
+        <v>11150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009582027582570667</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002955681688730806</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02476964134470871</v>
+        <v>0.02603819006797743</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -7268,19 +7268,19 @@
         <v>8966</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3963</v>
+        <v>4678</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15458</v>
+        <v>16817</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02605069464674782</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01151443916012398</v>
+        <v>0.01359097424488597</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04490985885775202</v>
+        <v>0.04885851106429177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -7289,19 +7289,19 @@
         <v>13069</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6692</v>
+        <v>7008</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23162</v>
+        <v>22194</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01692072401441904</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008664106472096903</v>
+        <v>0.009073270542653396</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02998681495001716</v>
+        <v>0.02873346741559893</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>31383</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21157</v>
+        <v>21962</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45587</v>
+        <v>43774</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07329010964849497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04940832440139749</v>
+        <v>0.0512879488980289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1064611373734068</v>
+        <v>0.1022273064599156</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -7339,19 +7339,19 @@
         <v>19699</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11304</v>
+        <v>11901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29235</v>
+        <v>29418</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05723224182262056</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03284267992626095</v>
+        <v>0.03457738616779692</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08493756352346082</v>
+        <v>0.08546937064743425</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -7360,19 +7360,19 @@
         <v>51082</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37348</v>
+        <v>37362</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68995</v>
+        <v>66473</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06613447180254126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0483534982701037</v>
+        <v>0.04837156946957097</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08932594864874645</v>
+        <v>0.08606167009819331</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>179018</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>156947</v>
+        <v>158135</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>200013</v>
+        <v>199553</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4180700282169287</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3665246371836943</v>
+        <v>0.3693002506074779</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4670985916199993</v>
+        <v>0.4660247728470225</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>131</v>
@@ -7410,19 +7410,19 @@
         <v>136282</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>118575</v>
+        <v>118176</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>156004</v>
+        <v>154947</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3959503218479999</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3445037040899448</v>
+        <v>0.3433462253534675</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4532497334154568</v>
+        <v>0.4501791682437843</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>296</v>
@@ -7431,19 +7431,19 @@
         <v>315301</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>287383</v>
+        <v>288612</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>345017</v>
+        <v>344394</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.408213140007907</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3720683325102848</v>
+        <v>0.3736593908621142</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4466861265857872</v>
+        <v>0.4458793950034673</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>166700</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>147240</v>
+        <v>146867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>189649</v>
+        <v>187554</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3893031159220418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3438562314172883</v>
+        <v>0.3429850516234797</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4428968683666182</v>
+        <v>0.4380025318552544</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>134</v>
@@ -7481,19 +7481,19 @@
         <v>140461</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>122389</v>
+        <v>123151</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>160276</v>
+        <v>158275</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4080920819474951</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3555861628473008</v>
+        <v>0.3578001697612075</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4656622671439119</v>
+        <v>0.4598468702908273</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>290</v>
@@ -7502,19 +7502,19 @@
         <v>307162</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>277222</v>
+        <v>279776</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>334682</v>
+        <v>337814</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3976757739757738</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3589134965217793</v>
+        <v>0.3622200920363925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4333059752211506</v>
+        <v>0.4373609345191088</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>46997</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35127</v>
+        <v>34671</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61450</v>
+        <v>61685</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1097547186299639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08203480470589872</v>
+        <v>0.08096985012723143</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1435070953514197</v>
+        <v>0.1440548285968223</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -7552,19 +7552,19 @@
         <v>38781</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27345</v>
+        <v>28843</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52560</v>
+        <v>52080</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1126746597351366</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07944672960738057</v>
+        <v>0.08379908899646037</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.152705027157044</v>
+        <v>0.1513113474123983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>81</v>
@@ -7573,19 +7573,19 @@
         <v>85779</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>69988</v>
+        <v>69383</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>104407</v>
+        <v>105146</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1110558901993588</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09061141462052523</v>
+        <v>0.08982938432970482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1351730684915063</v>
+        <v>0.1361301805921434</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>2769</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7594</v>
+        <v>7532</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007421465919564988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002304046543366571</v>
+        <v>0.002306507471033432</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02035477760653399</v>
+        <v>0.02018737241472887</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -7698,19 +7698,19 @@
         <v>5288</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1889</v>
+        <v>1981</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11486</v>
+        <v>11379</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01428204789728042</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005101890981264926</v>
+        <v>0.00535162945288871</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03102365832156359</v>
+        <v>0.03073285851880286</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -7719,19 +7719,19 @@
         <v>8057</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3802</v>
+        <v>3933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15291</v>
+        <v>15264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0108386516816543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00511422378187517</v>
+        <v>0.00529129083117658</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02057070781675333</v>
+        <v>0.02053524940578677</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>12393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6687</v>
+        <v>6485</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21262</v>
+        <v>21439</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03321853094679911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01792409279656655</v>
+        <v>0.01738157434737189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05698917548373521</v>
+        <v>0.05746474419404939</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -7769,19 +7769,19 @@
         <v>21139</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13568</v>
+        <v>13400</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31584</v>
+        <v>32227</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05709397173294579</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03664550275052151</v>
+        <v>0.03619204121688258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08530641141891078</v>
+        <v>0.08704259890608002</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -7790,19 +7790,19 @@
         <v>33532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23354</v>
+        <v>23903</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46293</v>
+        <v>45215</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04511064397497042</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0314179997210394</v>
+        <v>0.03215638905240088</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06227882188145958</v>
+        <v>0.06082828634598813</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>126891</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>108504</v>
+        <v>106728</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>146645</v>
+        <v>146423</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3401174259716058</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2908326859483483</v>
+        <v>0.2860719622607701</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3930660915510825</v>
+        <v>0.392469118351322</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>142</v>
@@ -7840,19 +7840,19 @@
         <v>152150</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>132154</v>
+        <v>133059</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>170409</v>
+        <v>170505</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4109481497703965</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3569404323699897</v>
+        <v>0.359384507059993</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4602633339807048</v>
+        <v>0.4605240970820142</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>261</v>
@@ -7861,19 +7861,19 @@
         <v>279042</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>252816</v>
+        <v>251208</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>308188</v>
+        <v>307559</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3753974855452555</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3401159418171641</v>
+        <v>0.3379531278149808</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4146087835192815</v>
+        <v>0.4137621749722581</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>181842</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160948</v>
+        <v>161746</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>201760</v>
+        <v>202474</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4874068916961019</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4314032989101062</v>
+        <v>0.4335407044870886</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5407930494348356</v>
+        <v>0.5427075680861202</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -7911,19 +7911,19 @@
         <v>149009</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>128633</v>
+        <v>130333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>168520</v>
+        <v>168147</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4024651432200148</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3474296796392061</v>
+        <v>0.3520218706519662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4551612995078905</v>
+        <v>0.4541536561612595</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>313</v>
@@ -7932,19 +7932,19 @@
         <v>330852</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>303440</v>
+        <v>305561</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>360680</v>
+        <v>361048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.445098274957422</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4082204720240225</v>
+        <v>0.4110741485598056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.485226918903382</v>
+        <v>0.4857212836171907</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>49185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36698</v>
+        <v>35918</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63877</v>
+        <v>64390</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1318356854659282</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09836431682860976</v>
+        <v>0.09627311443716013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1712153745521086</v>
+        <v>0.1725892152468192</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -7982,19 +7982,19 @@
         <v>42656</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31942</v>
+        <v>31609</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57313</v>
+        <v>57253</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1152106873793626</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08627347621066345</v>
+        <v>0.08537394557098493</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1547983363721682</v>
+        <v>0.1546363822822624</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>85</v>
@@ -8003,19 +8003,19 @@
         <v>91841</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>75274</v>
+        <v>74122</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>113963</v>
+        <v>110849</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1235549438406977</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1012670454829477</v>
+        <v>0.09971675778545364</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1533151660283018</v>
+        <v>0.1491263910253992</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>3913</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>941</v>
+        <v>1222</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9882</v>
+        <v>9944</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007545413046037092</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001813841350890621</v>
+        <v>0.002356990365420408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01905740453271652</v>
+        <v>0.01917769192754971</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7771</v>
+        <v>7710</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009296543622094984</v>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04677887568278358</v>
+        <v>0.0464119124333609</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -8149,19 +8149,19 @@
         <v>5457</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12985</v>
+        <v>13337</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007970297194155668</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002799355261466378</v>
+        <v>0.002791023180782531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01896499103321509</v>
+        <v>0.01947998466605834</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>15924</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9676</v>
+        <v>8939</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25149</v>
+        <v>25031</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03070976364381047</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01866046446976526</v>
+        <v>0.01723963147103359</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04849923014458551</v>
+        <v>0.04827261191856361</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -8199,19 +8199,19 @@
         <v>5568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2068</v>
+        <v>2101</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12126</v>
+        <v>13202</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03351879830792482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01244610864093487</v>
+        <v>0.0126464743563728</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07299365296440991</v>
+        <v>0.07947281777071379</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -8220,19 +8220,19 @@
         <v>21492</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13736</v>
+        <v>13906</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32576</v>
+        <v>32106</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03139133149295659</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02006313167696933</v>
+        <v>0.02031041981740634</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04757948014631073</v>
+        <v>0.04689299177561806</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>183039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>159495</v>
+        <v>160022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>204707</v>
+        <v>204022</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3529887992372318</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3075840081980493</v>
+        <v>0.3086009440338788</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3947750414837001</v>
+        <v>0.3934530544438212</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -8270,19 +8270,19 @@
         <v>65576</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53612</v>
+        <v>53577</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>79461</v>
+        <v>79992</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3947409442856034</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3227247506546935</v>
+        <v>0.3225123348456108</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4783236440057825</v>
+        <v>0.4815242302902782</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>235</v>
@@ -8291,19 +8291,19 @@
         <v>248614</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>224043</v>
+        <v>222078</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>276363</v>
+        <v>275607</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3631192971130305</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3272312202518817</v>
+        <v>0.3243616764860076</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4036478596148969</v>
+        <v>0.4025443222884498</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>240078</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>216442</v>
+        <v>217548</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>261699</v>
+        <v>263682</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4629870272909211</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4174066555089233</v>
+        <v>0.4195382149545195</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5046828248592895</v>
+        <v>0.508507486295666</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -8341,19 +8341,19 @@
         <v>72791</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59148</v>
+        <v>58816</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86912</v>
+        <v>86281</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4381762493419867</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3560489800463568</v>
+        <v>0.3540507977948903</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5231793234594826</v>
+        <v>0.5193792922536652</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>297</v>
@@ -8362,19 +8362,19 @@
         <v>312868</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>287870</v>
+        <v>285409</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>339620</v>
+        <v>339532</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4569670842911687</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.420455181603638</v>
+        <v>0.4168603502321842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4960402269538544</v>
+        <v>0.4959115628888866</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>75587</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61343</v>
+        <v>61297</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>90901</v>
+        <v>91962</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1457689967819995</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1182985038841959</v>
+        <v>0.1182109328709167</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1753021696341825</v>
+        <v>0.177347049238921</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -8412,19 +8412,19 @@
         <v>20644</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13397</v>
+        <v>12470</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30579</v>
+        <v>31120</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1242674644423901</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08064484966543027</v>
+        <v>0.07506630566606047</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1840764069365894</v>
+        <v>0.1873339891982201</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>94</v>
@@ -8433,19 +8433,19 @@
         <v>96231</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76746</v>
+        <v>78568</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>114230</v>
+        <v>117886</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1405519899086886</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1120938326389299</v>
+        <v>0.1147546785088652</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1668411180382198</v>
+        <v>0.1721803390752869</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>6182</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2483</v>
+        <v>2473</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13555</v>
+        <v>13305</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005409635406518645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002172874636378492</v>
+        <v>0.002163721972356461</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01186150227607629</v>
+        <v>0.01164285812691454</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -8558,19 +8558,19 @@
         <v>5402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1899</v>
+        <v>1882</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12652</v>
+        <v>12216</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006556020353077317</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002304230557502213</v>
+        <v>0.002284230800882412</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01535443219291127</v>
+        <v>0.01482545434274876</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -8579,19 +8579,19 @@
         <v>11584</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5875</v>
+        <v>6058</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20847</v>
+        <v>20134</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00588992845288659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002987098641765646</v>
+        <v>0.0030803498002113</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01059937821732824</v>
+        <v>0.01023727946755116</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>20887</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12801</v>
+        <v>12608</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31476</v>
+        <v>31426</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01827719427045987</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01120167196700998</v>
+        <v>0.01103305261755197</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02754328843545707</v>
+        <v>0.02750026671124138</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>26</v>
@@ -8629,19 +8629,19 @@
         <v>25740</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17602</v>
+        <v>17523</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>36836</v>
+        <v>37334</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03123721778531294</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02136095859827238</v>
+        <v>0.02126539598586472</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.044703250450889</v>
+        <v>0.04530785554186212</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -8650,19 +8650,19 @@
         <v>46626</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>34389</v>
+        <v>34451</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>60309</v>
+        <v>62484</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02370696652421688</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01748492965411531</v>
+        <v>0.01751632257125524</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03066370516659768</v>
+        <v>0.03176985505168584</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>385189</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>353871</v>
+        <v>354545</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>418106</v>
+        <v>417725</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.337065655315378</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3096603194751261</v>
+        <v>0.3102503224612251</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3658709563728077</v>
+        <v>0.3655372706167901</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>299</v>
@@ -8700,19 +8700,19 @@
         <v>310877</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>283399</v>
+        <v>281558</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>339304</v>
+        <v>337453</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3772741579188742</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3439284840623547</v>
+        <v>0.3416932958789566</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4117737743749574</v>
+        <v>0.4095270359293385</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>668</v>
@@ -8721,19 +8721,19 @@
         <v>696065</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>656965</v>
+        <v>649934</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>743247</v>
+        <v>741395</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3539115361543569</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3340311861124842</v>
+        <v>0.3304562858446628</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3779012343004573</v>
+        <v>0.3769594417417884</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>557960</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>525138</v>
+        <v>525479</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>594279</v>
+        <v>590650</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4882518376306939</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4595306263966471</v>
+        <v>0.4598292204676973</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.520033735719145</v>
+        <v>0.5168581644798549</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>348</v>
@@ -8771,19 +8771,19 @@
         <v>362221</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>333356</v>
+        <v>333512</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>392166</v>
+        <v>391902</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4395853043139175</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4045542338569556</v>
+        <v>0.4047440489281063</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4759253033899413</v>
+        <v>0.4756056150426587</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>888</v>
@@ -8792,19 +8792,19 @@
         <v>920181</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>875132</v>
+        <v>871725</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>965070</v>
+        <v>961561</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4678623536157053</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4449574840410848</v>
+        <v>0.4432253375463082</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4906861189530803</v>
+        <v>0.4889019616589273</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>172553</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>150855</v>
+        <v>150080</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>199522</v>
+        <v>197525</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1509956773769495</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1320084252914862</v>
+        <v>0.1313303851250173</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1745949195212556</v>
+        <v>0.1728471439368569</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>118</v>
@@ -8842,19 +8842,19 @@
         <v>119767</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101954</v>
+        <v>100688</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>141705</v>
+        <v>139844</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1453472996288181</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1237298092428259</v>
+        <v>0.1221934106821751</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1719701635883193</v>
+        <v>0.1697126168282691</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>280</v>
@@ -8863,19 +8863,19 @@
         <v>292321</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>261428</v>
+        <v>261366</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>325131</v>
+        <v>327090</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1486292152528343</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.132922277739466</v>
+        <v>0.1328903234661578</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1653114863924501</v>
+        <v>0.1663078467203343</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>3331</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>802</v>
+        <v>847</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7737</v>
+        <v>8838</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005374040986542089</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001294452331706865</v>
+        <v>0.001367261218738591</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0124823555981207</v>
+        <v>0.01425903682214961</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -8988,19 +8988,19 @@
         <v>6652</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2160</v>
+        <v>2466</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14968</v>
+        <v>15641</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009033839284312652</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002933282574736637</v>
+        <v>0.003348944427146219</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02032745638475452</v>
+        <v>0.02124152866113807</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -9009,19 +9009,19 @@
         <v>9983</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4824</v>
+        <v>4745</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>18966</v>
+        <v>18120</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007361224819896866</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003557198655264381</v>
+        <v>0.003498636045941544</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0139851860214567</v>
+        <v>0.01336155946151829</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>18651</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11290</v>
+        <v>11033</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28997</v>
+        <v>28122</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03009240540276814</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01821594593562871</v>
+        <v>0.01780139432013465</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04678431807340543</v>
+        <v>0.04537313753902433</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -9059,19 +9059,19 @@
         <v>25565</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16575</v>
+        <v>16317</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>37075</v>
+        <v>36965</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03471792539445449</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02250909927130073</v>
+        <v>0.02215892809753171</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05034831246258661</v>
+        <v>0.05020009979653941</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -9080,19 +9080,19 @@
         <v>44216</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31016</v>
+        <v>32582</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>57917</v>
+        <v>60086</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03260395325335264</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02287040238540006</v>
+        <v>0.02402518889856835</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04270677144433065</v>
+        <v>0.04430625712977858</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>199875</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>178100</v>
+        <v>177644</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>222652</v>
+        <v>224446</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.322485014649761</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2873525744485042</v>
+        <v>0.2866164627114167</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3592335016513271</v>
+        <v>0.3621282756986016</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>280</v>
@@ -9130,19 +9130,19 @@
         <v>296503</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>271331</v>
+        <v>272025</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>325303</v>
+        <v>325888</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4026587228546089</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3684747925160853</v>
+        <v>0.3694174316538381</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4417710098160298</v>
+        <v>0.442564355640183</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>480</v>
@@ -9151,19 +9151,19 @@
         <v>496378</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>464155</v>
+        <v>459535</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>536762</v>
+        <v>531957</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3660174401667163</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3422573743523807</v>
+        <v>0.3388504846215045</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3957957245676876</v>
+        <v>0.39225260076902</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>290779</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>268094</v>
+        <v>267112</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>316867</v>
+        <v>315904</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4691512843461815</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4325513042576838</v>
+        <v>0.4309667794040049</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5112438271575885</v>
+        <v>0.5096894736503824</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>269</v>
@@ -9201,19 +9201,19 @@
         <v>281932</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>256792</v>
+        <v>255344</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>307147</v>
+        <v>307635</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3828719486860902</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3487312916475263</v>
+        <v>0.3467640690166934</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4171143004349998</v>
+        <v>0.4177767639026879</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>542</v>
@@ -9222,19 +9222,19 @@
         <v>572711</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>536980</v>
+        <v>538836</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>611170</v>
+        <v>609390</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4223036476661033</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3959567928943554</v>
+        <v>0.3973250877711135</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.450662623802821</v>
+        <v>0.4493498317151076</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>107161</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>91487</v>
+        <v>88520</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>127491</v>
+        <v>126618</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1728972546147474</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1476084832281505</v>
+        <v>0.1428213588667838</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2056974295215977</v>
+        <v>0.2042894847722423</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>119</v>
@@ -9272,19 +9272,19 @@
         <v>125710</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>106071</v>
+        <v>107638</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>150044</v>
+        <v>149570</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1707175637805338</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1440467223593482</v>
+        <v>0.1461749259488307</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2037643852257645</v>
+        <v>0.2031205703921528</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>220</v>
@@ -9293,19 +9293,19 @@
         <v>232871</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>205819</v>
+        <v>205927</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>263218</v>
+        <v>260526</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1717137340939308</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1517659841779856</v>
+        <v>0.1518459820077331</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1940909000170855</v>
+        <v>0.1921056654870408</v>
       </c>
     </row>
     <row r="33">
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4757</v>
+        <v>5541</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003825438719728366</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01662308917129075</v>
+        <v>0.01936283175824585</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -9418,19 +9418,19 @@
         <v>13701</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7374</v>
+        <v>7706</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>22653</v>
+        <v>23535</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01267624263291509</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006821913612830018</v>
+        <v>0.007129440315203306</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02095785823834259</v>
+        <v>0.02177459123221028</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -9439,19 +9439,19 @@
         <v>14796</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>8382</v>
+        <v>8413</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>24516</v>
+        <v>24922</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01082348506874984</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006131486650178399</v>
+        <v>0.006154341746737369</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01793361793267141</v>
+        <v>0.01823090731430148</v>
       </c>
     </row>
     <row r="35">
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5454</v>
+        <v>5481</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.003802036212047993</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01905791048870696</v>
+        <v>0.019152208645379</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>44</v>
@@ -9489,19 +9489,19 @@
         <v>50239</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>36970</v>
+        <v>38205</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>69585</v>
+        <v>68710</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04648025179347665</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03420429128714678</v>
+        <v>0.03534704468511534</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06437960675556226</v>
+        <v>0.06357014247237033</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>45</v>
@@ -9510,19 +9510,19 @@
         <v>51327</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>37746</v>
+        <v>38281</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>67378</v>
+        <v>68316</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03754633036451382</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02761190214328952</v>
+        <v>0.02800304954384179</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04928824173150417</v>
+        <v>0.04997453322327832</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>83685</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>68655</v>
+        <v>68163</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>100131</v>
+        <v>99860</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2924391362169437</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2399171913936519</v>
+        <v>0.2381957638214108</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.349909846563174</v>
+        <v>0.3489633070905007</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>405</v>
@@ -9560,19 +9560,19 @@
         <v>442051</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>407694</v>
+        <v>410213</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>474572</v>
+        <v>475246</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.408980463611697</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3771938148698997</v>
+        <v>0.3795245227906019</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4390690625666408</v>
+        <v>0.4396929175970742</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>485</v>
@@ -9581,19 +9581,19 @@
         <v>525736</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>490321</v>
+        <v>489724</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>564216</v>
+        <v>564141</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3845846202525659</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3586778669998943</v>
+        <v>0.3582416111011674</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.41273340083996</v>
+        <v>0.4126789230479203</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>160250</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>142256</v>
+        <v>143952</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>177210</v>
+        <v>177607</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.559998907234576</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4971163498885376</v>
+        <v>0.5030436795900632</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6192633440090703</v>
+        <v>0.6206518239428873</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>390</v>
@@ -9631,19 +9631,19 @@
         <v>423885</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>392267</v>
+        <v>390734</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>453217</v>
+        <v>456295</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3921739426566324</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3629209506480111</v>
+        <v>0.3615025972731981</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4193116549353609</v>
+        <v>0.4221588339392208</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>541</v>
@@ -9652,19 +9652,19 @@
         <v>584135</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>545430</v>
+        <v>545967</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>621636</v>
+        <v>621833</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4273050986089504</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3989912913247303</v>
+        <v>0.3993844737470316</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4547372930111125</v>
+        <v>0.454881301010815</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>40044</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>29020</v>
+        <v>29573</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>53621</v>
+        <v>54685</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1399344816167039</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1014126886924838</v>
+        <v>0.1033420930056201</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1873808875412837</v>
+        <v>0.191098024624001</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>139</v>
@@ -9702,19 +9702,19 @@
         <v>150984</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>128347</v>
+        <v>129405</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>174809</v>
+        <v>175053</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1396890993052789</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.118745347338443</v>
+        <v>0.1197239517888949</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.161731656006586</v>
+        <v>0.1619574822900571</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>177</v>
@@ -9723,19 +9723,19 @@
         <v>191028</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>165552</v>
+        <v>167652</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>218995</v>
+        <v>216957</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.13974046570522</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1211041794970709</v>
+        <v>0.1226403577111842</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1601987640659941</v>
+        <v>0.1587079549334924</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>21392</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>13765</v>
+        <v>13338</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>32460</v>
+        <v>32280</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006350482518239518</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004086309085635891</v>
+        <v>0.003959439960352032</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.009636090922837499</v>
+        <v>0.009582790942861403</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>38</v>
@@ -9848,19 +9848,19 @@
         <v>41554</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>28771</v>
+        <v>29787</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>55742</v>
+        <v>56528</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01179918907154394</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.008169515789248984</v>
+        <v>0.008457826248817517</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0158277461443454</v>
+        <v>0.01605097087086517</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>59</v>
@@ -9869,19 +9869,19 @@
         <v>62946</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>48491</v>
+        <v>48934</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>81179</v>
+        <v>79772</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.009135421665441863</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.007037552949166293</v>
+        <v>0.007101772518228821</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01178158221716489</v>
+        <v>0.01157736783879251</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>100326</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>82017</v>
+        <v>80410</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>121864</v>
+        <v>120982</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02978319176117275</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02434788714230847</v>
+        <v>0.02387087344941385</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03617690982263173</v>
+        <v>0.03591509645701949</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>138</v>
@@ -9919,19 +9919,19 @@
         <v>147949</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>125780</v>
+        <v>124823</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>171881</v>
+        <v>175435</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04200964071137641</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03571487268620024</v>
+        <v>0.0354432317340899</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04880516245731331</v>
+        <v>0.0498142021322356</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>232</v>
@@ -9940,19 +9940,19 @@
         <v>248275</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>219656</v>
+        <v>218854</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>281868</v>
+        <v>281888</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03603236594216132</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03187878505915902</v>
+        <v>0.0317624464952763</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04090777595608484</v>
+        <v>0.04091056466044671</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>1157697</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1103441</v>
+        <v>1099004</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1211749</v>
+        <v>1207764</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3436780355137982</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3275713764099998</v>
+        <v>0.3262540601732045</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3597239790037615</v>
+        <v>0.358540859580586</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1317</v>
@@ -9990,19 +9990,19 @@
         <v>1403438</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1348884</v>
+        <v>1344463</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1468787</v>
+        <v>1469122</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3985019261559409</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3830115962202862</v>
+        <v>0.3817562774695616</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4170575469913453</v>
+        <v>0.4171527756349279</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2425</v>
@@ -10011,19 +10011,19 @@
         <v>2561135</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2480862</v>
+        <v>2479278</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2640102</v>
+        <v>2641036</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.371699584803996</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3600494383054823</v>
+        <v>0.3598196222693409</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3831600590702242</v>
+        <v>0.383295737692706</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>1597608</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1535536</v>
+        <v>1539429</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1654387</v>
+        <v>1654204</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.474271561169797</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4558445232352425</v>
+        <v>0.4570003495279769</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.491126910121663</v>
+        <v>0.4910725832929624</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1351</v>
@@ -10061,19 +10061,19 @@
         <v>1430301</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1368058</v>
+        <v>1372131</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1489242</v>
+        <v>1488433</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4061295939747827</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3884558471683832</v>
+        <v>0.3896124912627394</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4228656950052025</v>
+        <v>0.4226361124304123</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2871</v>
@@ -10082,19 +10082,19 @@
         <v>3027909</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2945659</v>
+        <v>2934643</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>3110002</v>
+        <v>3105064</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4394428857488965</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4275058555378668</v>
+        <v>0.4259070701162198</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4513570906766423</v>
+        <v>0.4506404279290001</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>491528</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>450318</v>
+        <v>451791</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>537410</v>
+        <v>532654</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1459167290369926</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1336830005374377</v>
+        <v>0.1341203603539722</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1595373153527789</v>
+        <v>0.1581253888150666</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>472</v>
@@ -10132,19 +10132,19 @@
         <v>498543</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>456517</v>
+        <v>455208</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>541015</v>
+        <v>545377</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.141559650086356</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1296265063343465</v>
+        <v>0.1292549969436002</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1536196543090955</v>
+        <v>0.1548581245303745</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>937</v>
@@ -10153,19 +10153,19 @@
         <v>990071</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>930226</v>
+        <v>932907</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1045570</v>
+        <v>1049951</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1436897418395044</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1350044595591647</v>
+        <v>0.1353935783957556</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1517443467862933</v>
+        <v>0.1523801671751858</v>
       </c>
     </row>
     <row r="45">
